--- a/expensedb.xlsx
+++ b/expensedb.xlsx
@@ -455,10 +455,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -488,26 +488,8 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01.January</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Dining</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>300</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>unos tacos del superburro</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/expensedb.xlsx
+++ b/expensedb.xlsx
@@ -488,8 +488,46 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>03.March</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Auto insur</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>500</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10.October</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>500</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>no mames</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
